--- a/craw_ipin/Expenses02.xlsx
+++ b/craw_ipin/Expenses02.xlsx
@@ -19,7 +19,7 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>狗</t>
   </si>
   <si>
     <t>Rent</t>
